--- a/CashFlow/ROKU_cashflow.xlsx
+++ b/CashFlow/ROKU_cashflow.xlsx
@@ -382,19 +382,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>206000000.0</v>
+        <v>-4181000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>202000000.0</v>
+        <v>10922000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>104912000.0</v>
+        <v>-5558000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>53867000.0</v>
+        <v>-10580000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>12054000.0</v>
+        <v>-14129000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-4728000.0</v>
@@ -500,19 +500,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>6410000.0</v>
+        <v>468000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>11236000.0</v>
+        <v>471000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-14942000.0</v>
+        <v>366914000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-7881000.0</v>
+        <v>260041000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2195000.0</v>
+        <v>177234000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
